--- a/Basicstudy2.xlsx
+++ b/Basicstudy2.xlsx
@@ -2,22 +2,26 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jk977\OneDrive\Desktop\Excel Study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67709E9E-29AE-476E-9D1F-FFE62CC435B1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C399C00-8F08-4BE0-8423-47A23C6B7734}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9525" activeTab="1" xr2:uid="{EA113A04-A10A-40AA-8B08-92A35D53F25E}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9525" activeTab="2" xr2:uid="{EA113A04-A10A-40AA-8B08-92A35D53F25E}"/>
   </bookViews>
   <sheets>
     <sheet name="Student" sheetId="3" r:id="rId1"/>
     <sheet name="Student1" sheetId="2" r:id="rId2"/>
-    <sheet name="Student2" sheetId="1" r:id="rId3"/>
+    <sheet name="pivot table" sheetId="7" r:id="rId3"/>
+    <sheet name="Student2" sheetId="1" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="101" r:id="rId5"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="78">
   <si>
     <t>Name</t>
   </si>
@@ -144,13 +148,130 @@
   </si>
   <si>
     <t xml:space="preserve">len of score rating </t>
+  </si>
+  <si>
+    <t>Vlookup</t>
+  </si>
+  <si>
+    <t>Hlookup</t>
+  </si>
+  <si>
+    <t>jishnu</t>
+  </si>
+  <si>
+    <t>hai,bye,hello</t>
+  </si>
+  <si>
+    <t>hai</t>
+  </si>
+  <si>
+    <t>bye</t>
+  </si>
+  <si>
+    <t>hello</t>
+  </si>
+  <si>
+    <t>kerala,kannur,india</t>
+  </si>
+  <si>
+    <t>kerala</t>
+  </si>
+  <si>
+    <t>kannur</t>
+  </si>
+  <si>
+    <t>india</t>
+  </si>
+  <si>
+    <t>jishnu kannur kuttiattoor</t>
+  </si>
+  <si>
+    <t>kuttiattoor</t>
+  </si>
+  <si>
+    <t>{ text splitting}</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>mark</t>
+  </si>
+  <si>
+    <t>mark2</t>
+  </si>
+  <si>
+    <t>mark3</t>
+  </si>
+  <si>
+    <t>mark4</t>
+  </si>
+  <si>
+    <t>student</t>
+  </si>
+  <si>
+    <t>subject</t>
+  </si>
+  <si>
+    <t>marks</t>
+  </si>
+  <si>
+    <t>Arun</t>
+  </si>
+  <si>
+    <t>Binu</t>
+  </si>
+  <si>
+    <t>Charan</t>
+  </si>
+  <si>
+    <t>maths</t>
+  </si>
+  <si>
+    <t>science</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Sum of marks</t>
+  </si>
+  <si>
+    <t>grade</t>
+  </si>
+  <si>
+    <t>Anu</t>
+  </si>
+  <si>
+    <t>manu</t>
+  </si>
+  <si>
+    <t>janu</t>
+  </si>
+  <si>
+    <t>Pass student</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -184,6 +305,29 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -232,12 +376,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -255,13 +400,47 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="60% - Accent4" xfId="2" builtinId="44"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="38">
+  <dxfs count="10">
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -303,52 +482,9 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
       <fill>
         <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
+          <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -363,238 +499,12 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -633,12 +543,204 @@
 </styleSheet>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Jishnu K" refreshedDate="46048.924378587966" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="6" xr:uid="{F729E3DC-9ECF-4A5E-8DA1-BE745CCE4503}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:D7" sheet="Student2"/>
+  </cacheSource>
+  <cacheFields count="5">
+    <cacheField name="student" numFmtId="0">
+      <sharedItems count="6">
+        <s v="Arun"/>
+        <s v="Anu"/>
+        <s v="Binu"/>
+        <s v="manu"/>
+        <s v="Charan"/>
+        <s v="janu"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="subject" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="marks" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="40" maxValue="80"/>
+    </cacheField>
+    <cacheField name="grade" numFmtId="0">
+      <sharedItems count="4">
+        <s v="B"/>
+        <s v="C"/>
+        <s v="F"/>
+        <s v="A"/>
+      </sharedItems>
+      <fieldGroup par="4"/>
+    </cacheField>
+    <cacheField name="grade2" numFmtId="0" databaseField="0">
+      <fieldGroup base="3">
+        <discretePr count="4">
+          <x v="1"/>
+          <x v="1"/>
+          <x v="0"/>
+          <x v="1"/>
+        </discretePr>
+        <groupItems count="2">
+          <s v="F"/>
+          <s v="Group1"/>
+        </groupItems>
+      </fieldGroup>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="6">
+  <r>
+    <x v="0"/>
+    <s v="maths"/>
+    <n v="65"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="science"/>
+    <n v="55"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="maths"/>
+    <n v="45"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="science"/>
+    <n v="70"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <s v="maths"/>
+    <n v="80"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <s v="science"/>
+    <n v="40"/>
+    <x v="2"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A31DC1D0-774C-4314-A876-91F5463D64AD}" name="PivotTable4" cacheId="101" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:B12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="5">
+    <pivotField axis="axisRow" showAll="0" measureFilter="1">
+      <items count="7">
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item x="3"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="3">
+        <item n="Pass student" x="1"/>
+        <item n="fail" x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="3">
+    <field x="4"/>
+    <field x="3"/>
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="9">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of marks" fld="2" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <filters count="1">
+    <filter fld="0" type="valueGreaterThanOrEqual" evalOrder="-1" id="3" iMeasureFld="0">
+      <autoFilter ref="A1">
+        <filterColumn colId="0">
+          <customFilters>
+            <customFilter operator="greaterThanOrEqual" val="50"/>
+          </customFilters>
+        </filterColumn>
+      </autoFilter>
+    </filter>
+  </filters>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2BC4418B-9530-4002-9B8B-E1DD47D9E09C}" name="Table1" displayName="Table1" ref="E8:F9" totalsRowShown="0">
   <autoFilter ref="E8:F9" xr:uid="{6553AAC4-4037-41C3-A335-8555F38FFA95}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{223CA23C-E9EC-4E30-BC54-AE1EFE576BBA}" name="Avarage Marks" dataDxfId="37"/>
-    <tableColumn id="2" xr3:uid="{6F290A96-0F67-4656-BA7A-D609AD054E01}" name="56" dataDxfId="36">
+    <tableColumn id="1" xr3:uid="{223CA23C-E9EC-4E30-BC54-AE1EFE576BBA}" name="Avarage Marks" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{6F290A96-0F67-4656-BA7A-D609AD054E01}" name="56" dataDxfId="8">
       <calculatedColumnFormula>AVERAGE(D2:D6)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -943,6 +1045,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E146B93F-A698-4EE9-8F7D-7340BE907852}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1320,290 +1423,292 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F8C3E85-3016-43A2-BB10-7F824A673E2C}">
-  <dimension ref="A1:G18"/>
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" customWidth="1"/>
-    <col min="4" max="4" width="24" customWidth="1"/>
-    <col min="5" max="5" width="28" customWidth="1"/>
-    <col min="6" max="6" width="27.140625" customWidth="1"/>
-    <col min="7" max="7" width="27.42578125" customWidth="1"/>
+    <col min="1" max="1" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="10" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1">
-        <v>45</v>
-      </c>
-      <c r="C2" s="1">
+      <c r="B2" s="9">
+        <v>33</v>
+      </c>
+      <c r="C2" s="9">
         <v>85</v>
       </c>
-      <c r="D2" s="1" t="str">
+      <c r="D2" s="9" t="str">
         <f>IF(B2&gt;=50,"Pass","Fail")</f>
         <v>Fail</v>
       </c>
-      <c r="E2" s="1" t="str">
+      <c r="E2" s="9" t="str">
         <f>IF(AND(B2&gt;=50,C2&gt;=75),"Good","Needs Improvement")</f>
         <v>Needs Improvement</v>
       </c>
-      <c r="F2" s="1" t="str">
+      <c r="F2" s="9" t="str">
         <f>IF(OR(C2&gt;=75,B2&gt;=60),"GOOD","BAD")</f>
         <v>GOOD</v>
       </c>
-      <c r="G2" s="1" t="str">
+      <c r="G2" s="9" t="str">
         <f>IF(B2&gt;=80,"A",IF(B2&gt;=70,"B",IF(B2&gt;=50,"C","E")))</f>
         <v>E</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1">
-        <v>50</v>
-      </c>
-      <c r="C3" s="1">
+      <c r="B3" s="9">
+        <v>44</v>
+      </c>
+      <c r="C3" s="9">
         <v>55</v>
       </c>
-      <c r="D3" s="1" t="str">
+      <c r="D3" s="9" t="str">
         <f t="shared" ref="D3:D10" si="0">IF(B3&gt;=50,"Pass","Fail")</f>
-        <v>Pass</v>
-      </c>
-      <c r="E3" s="1" t="str">
+        <v>Fail</v>
+      </c>
+      <c r="E3" s="9" t="str">
         <f t="shared" ref="E3:E10" si="1">IF(AND(B3&gt;=50,C3&gt;=75),"Good","Needs Improvement")</f>
         <v>Needs Improvement</v>
       </c>
-      <c r="F3" s="1" t="str">
+      <c r="F3" s="9" t="str">
         <f t="shared" ref="F3:F10" si="2">IF(OR(C3&gt;=75,B3&gt;=60),"GOOD","BAD")</f>
         <v>BAD</v>
       </c>
-      <c r="G3" s="1" t="str">
+      <c r="G3" s="9" t="str">
         <f t="shared" ref="G3:G10" si="3">IF(B3&gt;=80,"A",IF(B3&gt;=70,"B",IF(B3&gt;=50,"C","E")))</f>
-        <v>C</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+        <v>E</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="1">
-        <v>44</v>
-      </c>
-      <c r="C4" s="1">
+      <c r="B4" s="9">
+        <v>45</v>
+      </c>
+      <c r="C4" s="9">
         <v>49</v>
       </c>
-      <c r="D4" s="1" t="str">
+      <c r="D4" s="9" t="str">
         <f t="shared" si="0"/>
         <v>Fail</v>
       </c>
-      <c r="E4" s="1" t="str">
+      <c r="E4" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Needs Improvement</v>
       </c>
-      <c r="F4" s="1" t="str">
+      <c r="F4" s="9" t="str">
         <f t="shared" si="2"/>
         <v>BAD</v>
       </c>
-      <c r="G4" s="1" t="str">
+      <c r="G4" s="9" t="str">
         <f t="shared" si="3"/>
         <v>E</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="1">
-        <v>33</v>
-      </c>
-      <c r="C5" s="1">
+      <c r="B5" s="9">
+        <v>50</v>
+      </c>
+      <c r="C5" s="9">
         <v>54</v>
       </c>
-      <c r="D5" s="1" t="str">
+      <c r="D5" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>Fail</v>
-      </c>
-      <c r="E5" s="1" t="str">
+        <v>Pass</v>
+      </c>
+      <c r="E5" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Needs Improvement</v>
       </c>
-      <c r="F5" s="1" t="str">
+      <c r="F5" s="9" t="str">
         <f t="shared" si="2"/>
         <v>BAD</v>
       </c>
-      <c r="G5" s="1" t="str">
+      <c r="G5" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>E</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+        <v>C</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="9">
         <v>65</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="9">
         <v>66</v>
       </c>
-      <c r="D6" s="1" t="str">
+      <c r="D6" s="9" t="str">
         <f t="shared" si="0"/>
         <v>Pass</v>
       </c>
-      <c r="E6" s="1" t="str">
+      <c r="E6" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Needs Improvement</v>
       </c>
-      <c r="F6" s="1" t="str">
+      <c r="F6" s="9" t="str">
         <f t="shared" si="2"/>
         <v>GOOD</v>
       </c>
-      <c r="G6" s="1" t="str">
+      <c r="G6" s="9" t="str">
         <f t="shared" si="3"/>
         <v>C</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="1">
-        <v>70</v>
-      </c>
-      <c r="C7" s="1">
+      <c r="B7" s="9">
+        <v>65</v>
+      </c>
+      <c r="C7" s="9">
         <v>79</v>
       </c>
-      <c r="D7" s="1" t="str">
+      <c r="D7" s="9" t="str">
         <f t="shared" si="0"/>
         <v>Pass</v>
       </c>
-      <c r="E7" s="1" t="str">
+      <c r="E7" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Good</v>
       </c>
-      <c r="F7" s="1" t="str">
+      <c r="F7" s="9" t="str">
         <f t="shared" si="2"/>
         <v>GOOD</v>
       </c>
-      <c r="G7" s="1" t="str">
+      <c r="G7" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="9">
+        <v>70</v>
+      </c>
+      <c r="C8" s="9">
+        <v>87</v>
+      </c>
+      <c r="D8" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>Pass</v>
+      </c>
+      <c r="E8" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>Good</v>
+      </c>
+      <c r="F8" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>GOOD</v>
+      </c>
+      <c r="G8" s="9" t="str">
         <f t="shared" si="3"/>
         <v>B</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="1">
-        <v>80</v>
-      </c>
-      <c r="C8" s="1">
-        <v>87</v>
-      </c>
-      <c r="D8" s="1" t="str">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="9">
+        <v>77</v>
+      </c>
+      <c r="C9" s="9">
+        <v>75</v>
+      </c>
+      <c r="D9" s="9" t="str">
         <f t="shared" si="0"/>
         <v>Pass</v>
       </c>
-      <c r="E8" s="1" t="str">
+      <c r="E9" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Good</v>
       </c>
-      <c r="F8" s="1" t="str">
+      <c r="F9" s="9" t="str">
         <f t="shared" si="2"/>
         <v>GOOD</v>
       </c>
-      <c r="G8" s="1" t="str">
+      <c r="G9" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>B</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="9">
+        <v>80</v>
+      </c>
+      <c r="C10" s="9">
+        <v>90</v>
+      </c>
+      <c r="D10" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>Pass</v>
+      </c>
+      <c r="E10" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>Good</v>
+      </c>
+      <c r="F10" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>GOOD</v>
+      </c>
+      <c r="G10" s="9" t="str">
         <f t="shared" si="3"/>
         <v>A</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="1">
-        <v>65</v>
-      </c>
-      <c r="C9" s="1">
-        <v>75</v>
-      </c>
-      <c r="D9" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Pass</v>
-      </c>
-      <c r="E9" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>Good</v>
-      </c>
-      <c r="F9" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>GOOD</v>
-      </c>
-      <c r="G9" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>C</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="1">
-        <v>77</v>
-      </c>
-      <c r="C10" s="1">
-        <v>90</v>
-      </c>
-      <c r="D10" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Pass</v>
-      </c>
-      <c r="E10" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>Good</v>
-      </c>
-      <c r="F10" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>GOOD</v>
-      </c>
-      <c r="G10" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>B</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>19</v>
       </c>
@@ -1612,7 +1717,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>33</v>
       </c>
@@ -1621,7 +1726,7 @@
         <v>58.777777777777779</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>34</v>
       </c>
@@ -1629,8 +1734,17 @@
         <f>ROUND(AVERAGE(B2:B10),0)</f>
         <v>59</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E14" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>35</v>
       </c>
@@ -1638,8 +1752,23 @@
         <f>COUNTA(A2:A10)</f>
         <v>9</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E15" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="8" t="str">
+        <f>VLOOKUP(E15,A2:D10,4,FALSE)</f>
+        <v>Fail</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="H15" s="8" t="str">
+        <f>HLOOKUP(G15,A22:J28,5,FALSE)</f>
+        <v>Needs Improvement</v>
+      </c>
+      <c r="I15" s="8"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>36</v>
       </c>
@@ -1647,8 +1776,23 @@
         <f>MAX(B2:B10)</f>
         <v>80</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E16" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" s="8" t="str">
+        <f>VLOOKUP(E16,A3:D11,4,FALSE)</f>
+        <v>Pass</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H16" s="8" t="str">
+        <f>HLOOKUP(G16,A22:J29,5,FALSE)</f>
+        <v>Good</v>
+      </c>
+      <c r="I16" s="8"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>37</v>
       </c>
@@ -1657,7 +1801,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>38</v>
       </c>
@@ -1666,16 +1810,406 @@
         <v>17</v>
       </c>
     </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>6</v>
+      </c>
+      <c r="F19">
+        <f>VLOOKUP(E19,A2:B10,2,FALSE)</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="10" t="str">
+        <f t="array" ref="A22:J28">TRANSPOSE(A1:G10)</f>
+        <v>Name</v>
+      </c>
+      <c r="B22" s="10" t="str">
+        <v>A</v>
+      </c>
+      <c r="C22" s="10" t="str">
+        <v>B</v>
+      </c>
+      <c r="D22" s="10" t="str">
+        <v>C</v>
+      </c>
+      <c r="E22" s="10" t="str">
+        <v>D</v>
+      </c>
+      <c r="F22" s="10" t="str">
+        <v>E</v>
+      </c>
+      <c r="G22" s="10" t="str">
+        <v>F</v>
+      </c>
+      <c r="H22" s="10" t="str">
+        <v>G</v>
+      </c>
+      <c r="I22" s="10" t="str">
+        <v>H</v>
+      </c>
+      <c r="J22" s="10" t="str">
+        <v>I</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="str">
+        <v>Marks</v>
+      </c>
+      <c r="B23" s="9">
+        <v>33</v>
+      </c>
+      <c r="C23" s="9">
+        <v>44</v>
+      </c>
+      <c r="D23" s="9">
+        <v>45</v>
+      </c>
+      <c r="E23" s="9">
+        <v>50</v>
+      </c>
+      <c r="F23" s="9">
+        <v>65</v>
+      </c>
+      <c r="G23" s="9">
+        <v>65</v>
+      </c>
+      <c r="H23" s="9">
+        <v>70</v>
+      </c>
+      <c r="I23" s="9">
+        <v>77</v>
+      </c>
+      <c r="J23" s="9">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="9" t="str">
+        <v>Attendence</v>
+      </c>
+      <c r="B24" s="9">
+        <v>85</v>
+      </c>
+      <c r="C24" s="9">
+        <v>55</v>
+      </c>
+      <c r="D24" s="9">
+        <v>49</v>
+      </c>
+      <c r="E24" s="9">
+        <v>54</v>
+      </c>
+      <c r="F24" s="9">
+        <v>66</v>
+      </c>
+      <c r="G24" s="9">
+        <v>79</v>
+      </c>
+      <c r="H24" s="9">
+        <v>87</v>
+      </c>
+      <c r="I24" s="9">
+        <v>75</v>
+      </c>
+      <c r="J24" s="9">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="9" t="str">
+        <v>Pass or Fail using IF</v>
+      </c>
+      <c r="B25" s="9" t="str">
+        <v>Fail</v>
+      </c>
+      <c r="C25" s="9" t="str">
+        <v>Fail</v>
+      </c>
+      <c r="D25" s="9" t="str">
+        <v>Fail</v>
+      </c>
+      <c r="E25" s="9" t="str">
+        <v>Pass</v>
+      </c>
+      <c r="F25" s="9" t="str">
+        <v>Pass</v>
+      </c>
+      <c r="G25" s="9" t="str">
+        <v>Pass</v>
+      </c>
+      <c r="H25" s="9" t="str">
+        <v>Pass</v>
+      </c>
+      <c r="I25" s="9" t="str">
+        <v>Pass</v>
+      </c>
+      <c r="J25" s="9" t="str">
+        <v>Pass</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="9" t="str">
+        <v>Score Rating using AND</v>
+      </c>
+      <c r="B26" s="9" t="str">
+        <v>Needs Improvement</v>
+      </c>
+      <c r="C26" s="9" t="str">
+        <v>Needs Improvement</v>
+      </c>
+      <c r="D26" s="9" t="str">
+        <v>Needs Improvement</v>
+      </c>
+      <c r="E26" s="9" t="str">
+        <v>Needs Improvement</v>
+      </c>
+      <c r="F26" s="9" t="str">
+        <v>Needs Improvement</v>
+      </c>
+      <c r="G26" s="9" t="str">
+        <v>Good</v>
+      </c>
+      <c r="H26" s="9" t="str">
+        <v>Good</v>
+      </c>
+      <c r="I26" s="9" t="str">
+        <v>Good</v>
+      </c>
+      <c r="J26" s="9" t="str">
+        <v>Good</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="9" t="str">
+        <v>Score rating using OR</v>
+      </c>
+      <c r="B27" s="9" t="str">
+        <v>GOOD</v>
+      </c>
+      <c r="C27" s="9" t="str">
+        <v>BAD</v>
+      </c>
+      <c r="D27" s="9" t="str">
+        <v>BAD</v>
+      </c>
+      <c r="E27" s="9" t="str">
+        <v>BAD</v>
+      </c>
+      <c r="F27" s="9" t="str">
+        <v>GOOD</v>
+      </c>
+      <c r="G27" s="9" t="str">
+        <v>GOOD</v>
+      </c>
+      <c r="H27" s="9" t="str">
+        <v>GOOD</v>
+      </c>
+      <c r="I27" s="9" t="str">
+        <v>GOOD</v>
+      </c>
+      <c r="J27" s="9" t="str">
+        <v>GOOD</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="9" t="str">
+        <v>Grade using Nested IF</v>
+      </c>
+      <c r="B28" s="9" t="str">
+        <v>E</v>
+      </c>
+      <c r="C28" s="9" t="str">
+        <v>E</v>
+      </c>
+      <c r="D28" s="9" t="str">
+        <v>E</v>
+      </c>
+      <c r="E28" s="9" t="str">
+        <v>C</v>
+      </c>
+      <c r="F28" s="9" t="str">
+        <v>C</v>
+      </c>
+      <c r="G28" s="9" t="str">
+        <v>C</v>
+      </c>
+      <c r="H28" s="9" t="str">
+        <v>B</v>
+      </c>
+      <c r="I28" s="9" t="str">
+        <v>B</v>
+      </c>
+      <c r="J28" s="9" t="str">
+        <v>A</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="11"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>42</v>
+      </c>
+      <c r="B33" t="s">
+        <v>43</v>
+      </c>
+      <c r="C33" t="s">
+        <v>44</v>
+      </c>
+      <c r="D33" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="E35" s="12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>46</v>
+      </c>
+      <c r="B36" t="s">
+        <v>47</v>
+      </c>
+      <c r="C36" t="s">
+        <v>48</v>
+      </c>
+      <c r="D36" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>50</v>
+      </c>
+      <c r="B38" t="s">
+        <v>41</v>
+      </c>
+      <c r="C38" t="s">
+        <v>48</v>
+      </c>
+      <c r="D38" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>57</v>
+      </c>
+      <c r="B41" t="s">
+        <v>58</v>
+      </c>
+      <c r="C41" t="s">
+        <v>59</v>
+      </c>
+      <c r="D41" t="s">
+        <v>60</v>
+      </c>
+      <c r="E41" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>53</v>
+      </c>
+      <c r="B42">
+        <v>10</v>
+      </c>
+      <c r="C42">
+        <v>88</v>
+      </c>
+      <c r="D42">
+        <v>76</v>
+      </c>
+      <c r="E42">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>54</v>
+      </c>
+      <c r="B43">
+        <v>20</v>
+      </c>
+      <c r="C43">
+        <v>54</v>
+      </c>
+      <c r="D43">
+        <v>88</v>
+      </c>
+      <c r="E43">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>55</v>
+      </c>
+      <c r="B44">
+        <v>32</v>
+      </c>
+      <c r="C44">
+        <v>88</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>56</v>
+      </c>
+      <c r="B45">
+        <v>55</v>
+      </c>
+      <c r="C45">
+        <v>99</v>
+      </c>
+      <c r="D45">
+        <v>99</v>
+      </c>
+      <c r="E45">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B46">
+        <v>77</v>
+      </c>
+      <c r="C46">
+        <v>44</v>
+      </c>
+      <c r="D46">
+        <v>66</v>
+      </c>
+      <c r="E46">
+        <v>44</v>
+      </c>
+    </row>
   </sheetData>
+  <sortState ref="B23:J23">
+    <sortCondition ref="B2"/>
+  </sortState>
+  <mergeCells count="2">
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:I14"/>
+  </mergeCells>
   <conditionalFormatting sqref="E2:E10">
-    <cfRule type="cellIs" dxfId="14" priority="9" operator="equal">
-      <formula>"Pass"</formula>
+    <cfRule type="containsText" dxfId="7" priority="4" operator="containsText" text="Good">
+      <formula>NOT(ISERROR(SEARCH("Good",E2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="5" operator="containsText" text="Needs Improvement">
+    <cfRule type="containsText" dxfId="6" priority="5" operator="containsText" text="Needs Improvement">
       <formula>NOT(ISERROR(SEARCH("Needs Improvement",E2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="4" operator="containsText" text="Good">
-      <formula>NOT(ISERROR(SEARCH("Good",E2)))</formula>
+    <cfRule type="cellIs" dxfId="5" priority="9" operator="equal">
+      <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
@@ -1684,36 +2218,251 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D10">
-    <cfRule type="containsText" dxfId="0" priority="7" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="6" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="2" priority="6" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="1" priority="7" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7:E10">
-    <cfRule type="containsText" dxfId="11" priority="3" operator="containsText" text="Good">
+    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="Good">
       <formula>NOT(ISERROR(SEARCH("Good",E7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE877BE0-5696-4AA4-9269-876573765841}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A95C661-AB49-459A-8F36-E6F8B0EC5697}">
+  <dimension ref="A3:B12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4" s="15">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="15">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" s="15">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="15">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" s="15">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="B9" s="15">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="15">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="B11" s="15">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="B12" s="15">
+        <v>270</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE877BE0-5696-4AA4-9269-876573765841}">
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2">
+        <v>65</v>
+      </c>
+      <c r="D2" t="str">
+        <f>IF(C2&gt;=80,"A",IF(C2&gt;=60,"B",IF(C2&gt;=50,"C","F")))</f>
+        <v>B</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3">
+        <v>55</v>
+      </c>
+      <c r="D3" t="str">
+        <f t="shared" ref="D3:D7" si="0">IF(C3&gt;=80,"A",IF(C3&gt;=60,"B",IF(C3&gt;=50,"C","F")))</f>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4">
+        <v>45</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" si="0"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5">
+        <v>70</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" si="0"/>
+        <v>B</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6">
+        <v>80</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" si="0"/>
+        <v>A</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7">
+        <v>40</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" si="0"/>
+        <v>F</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>